--- a/Mifos Automation Excels/Client/4093-CREATGROUP-WITHCLIENTATTACHED.xlsx
+++ b/Mifos Automation Excels/Client/4093-CREATGROUP-WITHCLIENTATTACHED.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>office</t>
   </si>
@@ -26,9 +31,6 @@
     <t>submittedon</t>
   </si>
   <si>
-    <t>Group1</t>
-  </si>
-  <si>
     <t>staff</t>
   </si>
   <si>
@@ -59,22 +61,22 @@
     <t>AddClientMember</t>
   </si>
   <si>
-    <t>New Client 1</t>
-  </si>
-  <si>
-    <t>verify1</t>
-  </si>
-  <si>
-    <t>Client Not Attached</t>
-  </si>
-  <si>
     <t>Group3</t>
+  </si>
+  <si>
+    <t>GroupAddClient</t>
+  </si>
+  <si>
+    <t>Jhon Deer</t>
+  </si>
+  <si>
+    <t>VerifyClientCreated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -157,6 +159,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -204,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,9 +242,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,6 +294,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -474,10 +513,10 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -490,23 +529,23 @@
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6">
         <v>42005</v>
@@ -514,26 +553,26 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -544,23 +583,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="20.28515625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
